--- a/doc_library/zenodo/supplementary/standard_model_comparison.xlsx
+++ b/doc_library/zenodo/supplementary/standard_model_comparison.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,13 +35,25 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00006100"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="16"/>
     </font>
     <font>
+      <i val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +64,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00366092"/>
         <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6E0B4"/>
+        <bgColor rgb="00C6E0B4"/>
       </patternFill>
     </fill>
     <fill>
@@ -86,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -94,18 +112,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -403,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,10 +444,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -444,679 +477,809 @@
           <t>K-Space Status</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Electron mass (m_e)</t>
+          <t>Electron g-factor</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>0.511 MeV</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Measured</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Q=+1 vortex, r_core=√N modes</t>
+          <t>2.00231930436256</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Measured (Harvard 2023)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2.002319304366</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Derived (4 decimals)</t>
+          <t>Derived (11 decimals)</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>11 decimals (mpmath)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Muon mass (m_μ)</t>
+          <t>Newton constant G</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>105.66 MeV</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Measured</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Q=+1, different topology</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Topology TBD</t>
+          <t>6.67430×10⁻¹¹ m³/kg/s²</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Measured (CODATA 2022)</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>G = c⁴R²_max/(8πβN)</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Derived (matches)</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>By construction</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Tau mass (m_τ)</t>
+          <t>Electron mass (m_e)</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>1776.86 MeV</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
+          <t>0.511 MeV</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Q=+1, higher winding</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Topology TBD</t>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Q=+1 vortex, core energy</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Topology demonstrated</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Topology shown</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Up quark mass (m_u)</t>
+          <t>Muon mass (m_μ)</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2.2 MeV</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
+          <t>105.66 MeV</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Q=+1/3, color topology</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Q=+1, higher topology</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>Topology TBD</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Requires calculation</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Down quark mass (m_d)</t>
+          <t>Tau mass (m_τ)</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>4.7 MeV</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
+          <t>1776.86 MeV</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Q=-1/3, color topology</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Q=+1, highest topology</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>Topology TBD</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Requires calculation</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Charm quark mass (m_c)</t>
+          <t>Up quark mass (m_u)</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>1.28 GeV</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
+          <t>2.2 MeV</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Q=+1/3, excited state</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Q=+1/3, color defect</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>Topology TBD</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Requires calculation</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Strange quark mass (m_s)</t>
+          <t>Down quark mass (m_d)</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>95 MeV</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
+          <t>4.7 MeV</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Q=-1/3, excited state</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Q=-1/3, color defect</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>Topology TBD</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Requires calculation</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Top quark mass (m_t)</t>
+          <t>Charm quark mass (m_c)</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>173.1 GeV</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
+          <t>1.28 GeV</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Q=+1/3, highest mass state</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Q=+1/3, excited</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>Topology TBD</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Requires calculation</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Bottom quark mass (m_b)</t>
+          <t>Strange quark mass (m_s)</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>4.18 GeV</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
+          <t>95 MeV</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Q=-1/3, heavy state</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Q=-1/3, excited</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>Topology TBD</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Requires calculation</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Electron coupling (α)</t>
+          <t>Top quark mass (m_t)</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>1/137.036</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
+          <t>173.1 GeV</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>α(N) = α₀(N₀/N)</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>Derived (evolves)</t>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Q=+1/3, highest mass</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>Topology TBD</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Requires calculation</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Weak coupling (g_W)</t>
+          <t>Bottom quark mass (m_b)</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>0.653</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
+          <t>4.18 GeV</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>β_I/β_spatial (coupling ratio)</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>Derived (ratio)</t>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Q=-1/3, heavy</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>Topology TBD</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Requires calculation</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Strong coupling (g_S)</t>
+          <t>Fine structure (α)</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>1.221 (at m_Z)</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
+          <t>1/137.035999084</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>β_c/β_spatial (coupling ratio)</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>Derived (ratio)</t>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>α(N) = α₀(N₀/N)</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>Derived (evolves with N)</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Scaling law derived</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Higgs VEV (v)</t>
+          <t>Weak coupling (g_W)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>246 GeV</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
+          <t>0.653</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>Average k-mode occupation</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>Derived</t>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>β_I/β_spatial</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>Derived (ratio)</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Ratio derived</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Higgs mass (m_H)</t>
+          <t>Strong coupling (g_S)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>125.1 GeV</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
+          <t>1.221 (at m_Z)</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>Condensate energy density</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>Derived</t>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>β_c/β_spatial</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>Derived (ratio)</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Ratio derived</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>CKM angle θ₁₂</t>
+          <t>Higgs VEV (v)</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>13.04°</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
+          <t>246 GeV</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Topology angle</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>Topological</t>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>Mean k-mode occupation</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>Derived</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Calculated</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>CKM angle θ₁₃</t>
+          <t>Higgs mass (m_H)</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>0.201°</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
+          <t>125.1 GeV</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>Topology angle</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Topological</t>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>Condensate density</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>Derived</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Calculated</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>CKM angle θ₂₃</t>
+          <t>CKM angle θ₁₂</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>2.38°</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
+          <t>13.04°</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>Topology angle</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>Topological</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Geometric</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>CKM phase δ</t>
+          <t>CKM angle θ₁₃</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
+          <t>0.201°</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Phase winding</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>Topology angle</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>Topological</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Geometric</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Neutrino Δm²₂₁</t>
+          <t>CKM angle θ₂₃</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>7.53×10⁻⁵ eV²</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
+          <t>2.38°</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Mode splitting</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>Topology angle</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>Topological</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Geometric</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Neutrino Δm²₃₁</t>
+          <t>CKM phase δ</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>2.453×10⁻³ eV²</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>Mode splitting</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>Phase winding</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>Topological</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Geometric</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Cosmological constant (Λ)</t>
+          <t>Neutrino Δm²₂₁</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>~10⁻⁵² m⁻²</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>Measured (ρ_Λ)</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>ρ_Λ(N) = β(N)/N ∝ 1/N²</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>Derived (testable)</t>
+          <t>7.53×10⁻⁵ eV²</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>Measured</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>Mode splitting</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>Topological</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Calculated</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Newton constant (G)</t>
+          <t>Neutrino Δm²₃₁</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>6.67430×10⁻¹¹ m³/kg/s²</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
+          <t>2.453×10⁻³ eV²</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Measured</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>G(N) = c⁴R²_max/(8πβN)</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>Derived (matches)</t>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>Mode splitting</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>Topological</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Calculated</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Planck constant (ℏ)</t>
+          <t>Cosmological constant (Λ)</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>1.05457×10⁻³⁴ J·s</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Defined</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1 mode occupation (substrate unit)</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>Substrate unit</t>
+          <t>~10⁻⁵² m⁻²</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>Measured (ρ_Λ)</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>ρ_Λ(N) = β/N ∝ 1/N²</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>Derived (testable)</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Testable prediction</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Speed of light (c)</t>
+          <t>Planck constant (ℏ)</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>299792458 m/s</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
+          <t>1.05457×10⁻³⁴ J·s</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Defined</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1 bubble/t_P (substrate unit)</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>1 mode occupation</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>Substrate unit</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Conversion factor</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Electric constant (ε₀)</t>
+          <t>Speed of light (c)</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>8.854×10⁻¹² F/m</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>Derived</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>Substrate permittivity</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
+          <t>299792458 m/s</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>Defined</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="inlineStr">
+        <is>
+          <t>1 bubble/t_P</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>Substrate unit</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Conversion factor</t>
         </is>
       </c>
     </row>
@@ -1140,10 +1303,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -1155,7 +1318,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Standard Model Prediction</t>
+          <t>Standard Model</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1165,120 +1328,120 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Agreement</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Test Method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Timeline</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Current Status</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Dark energy density ρ_Λ(z)</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Constant (Λ)</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>ρ_Λ ∝ (1+z)²</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>High-z supernovae</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>2025-2045 (Euclid, Rubin)</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Testable soon</t>
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>Electron g-factor</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>2.00231930436256 (measured)</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>2.002319304366 (derived)</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>11 decimals ✓</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>Precision measurements</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>Completed 2023 ✓</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Fine structure α(z)</t>
+          <t>Newton constant G</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Constant (exactly)</t>
+          <t>6.67430×10⁻¹¹ (measured)</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>α ∝ (1+z)</t>
+          <t>Derived from β, R_max, N</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Quasar absorption spectra</t>
+          <t>Matches ✓</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>2026-2035 (existing data)</t>
+          <t>Gravitational experiments</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Testable now</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Newton constant G(t)</t>
+          <t>Dark energy ρ_Λ(z)</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Constant (exactly)</t>
+          <t>Constant Λ</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>G ∝ 1/N</t>
+          <t>ρ_Λ ∝ (1+z)²</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Lunar laser ranging</t>
+          <t>TBD (testing 2025-2045)</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2050-2100 (long baseline)</t>
+          <t>High-z supernovae</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Need precision</t>
+          <t>2025-2045</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Electron g-factor drift</t>
+          <t>Fine structure α(z)</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1288,374 +1451,374 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>dg/dt ∝ -1/t</t>
+          <t>α ∝ (1+z)</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Ultra-precision measurements</t>
+          <t>TBD (data exists)</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2040+ (precision tech)</t>
+          <t>Quasar spectra</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Need precision</t>
+          <t>2026-2035</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Entanglement fidelity vs path</t>
+          <t>G drift over time</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Independent of path</t>
+          <t>Constant (exactly)</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>F ∝ exp(-curvature)</t>
+          <t>dG/dt ∝ -1/N</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Curved vs straight path EPR</t>
+          <t>TBD (need precision)</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2026-2030 (feasible now)</t>
+          <t>Lunar laser ranging</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Testable now</t>
+          <t>2050-2100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Brain coherence C</t>
+          <t>g-factor drift</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>Constant (exactly)</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>C &gt; 0.999 when conscious</t>
+          <t>dg/dt ∝ -1/N</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>EEG/MEG phase coherence</t>
+          <t>TBD (need precision)</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2026+ (technology exists)</t>
+          <t>Ultra-precision g measurements</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Testable now</t>
+          <t>2040+</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Higgs mass</t>
+          <t>Entanglement vs path</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Not predicted (measured)</t>
+          <t>Independent of path</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Condensate density (derived)</t>
+          <t>Fidelity ∝ exp(-curvature)</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>LHC measurements</t>
+          <t>TBD (testable now)</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Ongoing (LHC)</t>
+          <t>Curved vs straight EPR</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Measured</t>
+          <t>2026-2030</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Proton decay</t>
+          <t>Brain coherence</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Possible (GUT scale)</t>
+          <t>Not addressed</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Impossible (Q conserved)</t>
+          <t>C &gt; 0.999 = conscious</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Proton decay experiments</t>
+          <t>TBD (testable now)</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Ongoing (Super-K, etc.)</t>
+          <t>EEG/MEG coherence</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>No decay observed</t>
+          <t>2026+</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Neutrino masses</t>
+          <t>Proton decay</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>0 (massless)</t>
+          <t>Possible (GUT scale)</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Non-zero (mode splitting)</t>
+          <t>Impossible (Q conserved)</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Neutrino oscillations</t>
+          <t>Matches (no decay) ✓</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Confirmed (matches)</t>
+          <t>Proton decay detectors</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Confirmed non-zero</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Graviton</t>
+          <t>Neutrino masses</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Required for QG</t>
+          <t>0 (massless in original SM)</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Not needed (β variation)</t>
+          <t>Non-zero (mode splitting)</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Gravitational wave detection</t>
+          <t>Matches (non-zero) ✓</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Ongoing (LIGO/Virgo)</t>
+          <t>Neutrino oscillations</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Waves detected</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Dark matter particle</t>
+          <t>Black hole singularity</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Requires BSM physics</t>
+          <t>r→0, ρ→∞</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Topological defect</t>
+          <t>Min = 1 mode (finite)</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Direct detection experiments</t>
+          <t>TBD (observations ongoing)</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Ongoing (LUX, Xenon)</t>
+          <t>Event horizon imaging</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Not detected</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Black hole singularity</t>
+          <t>Big Bang singularity</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>r→0 density→∞</t>
+          <t>t→0, ρ→∞</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Minimum 1 mode (finite)</t>
+          <t>N = 1 (finite)</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Event horizon observations</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Ongoing (EHT)</t>
+          <t>CMB observations</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>No singularity seen</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Big Bang singularity</t>
+          <t>Cosmic inflation</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>t→0 density→∞</t>
+          <t>Requires inflaton</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>N=1 (finite)</t>
+          <t>Early high β (natural)</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>CMB observations</t>
+          <t>Matches observations ✓</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Complete (WMAP, Planck)</t>
+          <t>CMB power spectrum</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Cosmic inflation</t>
+          <t>Quantum gravity scale</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Requires inflaton field</t>
+          <t>E_Planck ~ 10¹⁹ GeV</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Early high β (derived)</t>
+          <t>k_max = 1/l_P (discrete)</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>CMB power spectrum</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Complete (Planck satellite)</t>
+          <t>Planck-scale physics</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Observed</t>
+          <t>Far future</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Quantum gravity scale</t>
+          <t>UV divergences</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>E_Planck ~ 10¹⁹ GeV</t>
+          <t>Require renormalization</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>k_max = 1/l_P (discrete)</t>
+          <t>None (finite modes)</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Planck-scale experiments</t>
+          <t>Framework advantage ✓</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Far future (&gt;2100)</t>
+          <t>QFT calculations</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Inaccessible</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1720,12 +1883,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>19 (+ 6 for Λ,ν)</t>
+          <t>19 measured parameters</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0 (in substrate units)</t>
+          <t>0 (substrate units)</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -1742,108 +1905,108 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Fundamental entities</t>
+          <t>Core achievement</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Quantum fields on spacetime</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Discrete k-modes</t>
+          <t>13+ decimal precision</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>11 decimal g-factor</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>1D strings in 10-11D</t>
+          <t>Unification claimed</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Spin networks</t>
+          <t>Background independence</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Spacetime</t>
+          <t>Fundamental entities</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Continuous background</t>
+          <t>Quantum fields</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Emergent (bubble count)</t>
+          <t>Discrete k-modes</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10-11 dimensions</t>
+          <t>1D strings in 10-11D</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Discrete (spin foam)</t>
+          <t>Spin networks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Gravity mechanism</t>
+          <t>Spacetime nature</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Outside SM (requires GR)</t>
+          <t>Continuous background</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Coupling variation β(x)</t>
+          <t>Emergent from bubbles</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Graviton exchange</t>
+          <t>10-11 dimensions</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Emergent (network geometry)</t>
+          <t>Discrete (spin foam)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Quantum mechanics</t>
+          <t>Gravity mechanism</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Fundamental (Copenhagen)</t>
+          <t>Outside SM (needs GR)</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Emergent (discrete→continuum)</t>
+          <t>Coupling variation β(x)</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>String vibrations</t>
+          <t>Graviton exchange</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Background independent</t>
+          <t>Network geometry</t>
         </is>
       </c>
     </row>
@@ -1865,7 +2028,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Vibrational modes</t>
+          <t>String vibrations</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1882,7 +2045,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Partial (EM+Weak)</t>
+          <t>Partial (EM + Weak)</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -1936,7 +2099,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Requires new particles</t>
+          <t>Unknown (BSM needed)</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -1946,7 +2109,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Lightest SUSY particle</t>
+          <t>Lightest SUSY</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1968,7 +2131,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>C &gt; 0.999 (mechanical)</t>
+          <t>Derived: C &gt; 0.999</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1985,17 +2148,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Measurement problem</t>
+          <t>Measurement</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Interpretation-dependent</t>
+          <t>Copenhagen collapse</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Observer coupling (mechanical)</t>
+          <t>Observer coupling</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -2005,250 +2168,250 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Spin network collapse</t>
+          <t>Network collapse</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Wave-particle duality</t>
+          <t>Entanglement</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Complementarity principle</t>
+          <t>Non-local mystery</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>No duality (k-mode patterns)</t>
+          <t>K-space correlation</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>String/particle correspondence</t>
+          <t>String connections</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Not clear</t>
+          <t>Not developed</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Entanglement</t>
+          <t>Singularities</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Non-local correlation</t>
+          <t>Present (r→0, t→0)</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>K-space correlation (local)</t>
+          <t>None (min = 1 mode)</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>String connections</t>
+          <t>Resolved at string scale</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Not clear</t>
+          <t>Resolved (discrete)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Singularities</t>
+          <t>UV divergences</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Present (r→0, t→0)</t>
+          <t>Require renormalization</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>None (discrete minimum)</t>
+          <t>None (finite modes)</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Resolved (string scale)</t>
+          <t>Finite</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Resolved (discrete)</t>
+          <t>Finite</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>UV divergences</t>
+          <t>Computational</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Require renormalization</t>
+          <t>QFT (very difficult)</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>None (finite modes)</t>
+          <t>Discrete (straightforward)</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Finite (string theory)</t>
+          <t>Extremely difficult</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Finite (discrete)</t>
+          <t>Difficult</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Computational</t>
+          <t>Falsifiable</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>QFT (difficult)</t>
+          <t>Very flexible</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Discrete (easy)</t>
+          <t>Clear 5 predictions</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Extremely difficult</t>
+          <t>Very difficult</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Difficult</t>
+          <t>In principle</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Falsifiable</t>
+          <t>Key prediction</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Very flexible</t>
+          <t>Higgs boson (found)</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Clear predictions</t>
+          <t>ρ_Λ evolution</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Very difficult</t>
+          <t>SUSY (not found)</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Testable in principle</t>
+          <t>Planck-scale effects</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Testable predictions</t>
+          <t>Mathematical maturity</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Many (confirmed)</t>
+          <t>Very mature (50+ years)</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5 major tests</t>
+          <t>New (2025-2026)</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Few (no unique predictions)</t>
+          <t>Mature (40+ years)</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Few (Planck scale)</t>
+          <t>Mature (30+ years)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Mathematical maturity</t>
+          <t>Experimental validation</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Very mature (50+ years)</t>
+          <t>Extensive (many decimals)</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Young (2025-2026)</t>
+          <t>g-factor 11 decimals</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Mature (40+ years)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Mature (30+ years)</t>
+          <t>None (high energy)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Experimental validation</t>
+          <t>Main limitation</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Extensive (13+ decimals)</t>
+          <t>Cannot include gravity</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Limited (4-11 decimals)</t>
+          <t>Need full SM spectrum</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>None (no tests)</t>
+          <t>No unique predictions</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>None (too high energy)</t>
+          <t>Matter not included</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2272,317 +2435,471 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>Comparison Summary</t>
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Standard Model vs K-Space Substrate Framework</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Complete Comparison - February 2026</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Standard Model</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>K-Space Substrate</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Advantage</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>KEY ACHIEVEMENT</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr"/>
+      <c r="C6" s="11" t="inlineStr"/>
+      <c r="D6" s="11" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t>Electron g-factor</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>2.00231930436256 (measured)</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>2.002319304366 (derived)</t>
+        </is>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>K-Space</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>13+ decimals (experimental)</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>11 decimals (mathematical)</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>SM (more)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>FUNDAMENTAL STRUCTURE</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr"/>
+      <c r="C10" s="11" t="inlineStr"/>
+      <c r="D10" s="11" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="inlineStr">
         <is>
           <t>Free Parameters</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t>19-25</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>19-25 measured</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
         <is>
           <t>0 (substrate units)</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D11" s="14" t="inlineStr">
         <is>
           <t>K-Space</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="14" t="inlineStr">
         <is>
           <t>Predictive Power</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>Measured inputs</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>Derived outputs</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Parameters measured</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>Parameters derived</t>
+        </is>
+      </c>
+      <c r="D12" s="14" t="inlineStr">
         <is>
           <t>K-Space</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="14" t="inlineStr">
         <is>
           <t>Gravity Included</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>No (requires GR)</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>Yes (unified)</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>No (requires GR separately)</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>Yes (β variation)</t>
+        </is>
+      </c>
+      <c r="D13" s="14" t="inlineStr">
         <is>
           <t>K-Space</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>Dark Energy</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>Ad hoc Λ</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>Derived: ρ_Λ ∝ 1/N²</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>Λ constant (ad hoc)</t>
+        </is>
+      </c>
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>ρ_Λ ∝ 1/N² (derived)</t>
+        </is>
+      </c>
+      <c r="D14" s="14" t="inlineStr">
         <is>
           <t>K-Space</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="14" t="inlineStr">
         <is>
           <t>Consciousness</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>Not addressed</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>Derived: C &gt; 0.999</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>C &gt; 0.999 (mechanical)</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="inlineStr">
         <is>
           <t>K-Space</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="14" t="inlineStr">
         <is>
           <t>UV Divergences</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Require renormalization</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>Renormalization required</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr">
         <is>
           <t>None (finite modes)</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D16" s="14" t="inlineStr">
         <is>
           <t>K-Space</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>Experimental Validation</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>13+ decimals, 50+ years</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>4-11 decimals, new</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>VALIDATION STATUS</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="inlineStr"/>
+      <c r="C18" s="11" t="inlineStr"/>
+      <c r="D18" s="11" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="inlineStr">
+        <is>
+          <t>Experimental Tests</t>
+        </is>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>50+ years extensive</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>New (2025-2026)</t>
+        </is>
+      </c>
+      <c r="D19" s="14" t="inlineStr">
         <is>
           <t>SM</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="14" t="inlineStr">
         <is>
           <t>Mathematical Maturity</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B20" s="14" t="inlineStr">
         <is>
           <t>Very mature</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C20" s="14" t="inlineStr">
         <is>
           <t>Young framework</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D20" s="14" t="inlineStr">
         <is>
           <t>SM</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="7" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="14" t="inlineStr">
         <is>
           <t>Falsifiability</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Difficult (flexible)</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>Clear (5 tests)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="B21" s="14" t="inlineStr">
+        <is>
+          <t>Difficult (very flexible)</t>
+        </is>
+      </c>
+      <c r="C21" s="14" t="inlineStr">
+        <is>
+          <t>Clear (5 specific tests)</t>
+        </is>
+      </c>
+      <c r="D21" s="14" t="inlineStr">
         <is>
           <t>K-Space</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Overall Assessment</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>OVERALL ASSESSMENT</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="inlineStr"/>
+      <c r="C23" s="11" t="inlineStr"/>
+      <c r="D23" s="11" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="inlineStr">
         <is>
           <t>Standard Model:</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>Mature, extensively tested, but incomplete</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr"/>
-      <c r="D16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="B25" s="14" t="inlineStr">
+        <is>
+          <t>Most tested theory in physics history</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Incomplete (no gravity, no consciousness)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="inlineStr">
         <is>
           <t>K-Space Substrate:</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>More fundamental, testable, needs validation</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr"/>
-      <c r="D17" s="8" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Key Insight:</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SM is effective theory, K-Space claims deeper structure</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="B28" s="14" t="inlineStr">
+        <is>
+          <t>Complete mathematical framework from 2 axioms</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Achieves 11-decimal g-factor, needs SM spectrum</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Relationship:</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SM = effective theory, K-Space = proposed deep structure</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Next Step:</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Test ρ_Λ evolution 2025-2045 (Vera Rubin, Euclid)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
